--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Outsourcing Recognising Template.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Outsourcing Recognising Template.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>Outsourcing Recognising Report</t>
   </si>
@@ -211,15 +211,19 @@
   </si>
   <si>
     <t>{SumRTotalSelling}</t>
+  </si>
+  <si>
+    <t>{Balance}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$₫-42A]_-;\-* #,##0.00\ [$₫-42A]_-;_-* &quot;-&quot;??\ [$₫-42A]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;\ [$₫-42A]_-;_-@_-"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -439,7 +443,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -453,14 +457,10 @@
     <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -482,6 +482,19 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -807,7 +820,7 @@
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="AD4" sqref="AD4:AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -847,186 +860,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="23.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
     </row>
     <row r="2" spans="1:33" ht="18.75">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
       <c r="AG2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="25" customFormat="1" ht="15.75">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:33" s="21" customFormat="1" ht="15.75">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="U3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="23" t="s">
+      <c r="V3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="23" t="s">
+      <c r="W3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="23" t="s">
+      <c r="X3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="23" t="s">
+      <c r="Z3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="23" t="s">
+      <c r="AA3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="23" t="s">
+      <c r="AB3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AC3" s="23" t="s">
+      <c r="AC3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AD3" s="23" t="s">
+      <c r="AD3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AE3" s="23" t="s">
+      <c r="AE3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="24" t="s">
+      <c r="AF3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="AG3" s="28" t="e">
-        <f>(AF4-P4)</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="AG3" s="24"/>
     </row>
-    <row r="4" spans="1:33" s="21" customFormat="1">
+    <row r="4" spans="1:33" s="17" customFormat="1">
       <c r="A4" s="9" t="s">
         <v>50</v>
       </c>
@@ -1054,55 +1064,57 @@
       <c r="M4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="U4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17" t="s">
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AD4" s="19" t="s">
+      <c r="AD4" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="AE4" s="19" t="s">
+      <c r="AE4" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AF4" s="20" t="s">
+      <c r="AF4" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AG4" s="29"/>
+      <c r="AG4" s="35" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5" spans="1:33" outlineLevel="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1141,16 +1153,16 @@
       <c r="M5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="23" t="s">
         <v>49</v>
       </c>
       <c r="R5" s="1" t="s">
@@ -1189,16 +1201,16 @@
       <c r="AC5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AD5" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AE5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AF5" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AG5" s="29"/>
+      <c r="AG5" s="37"/>
     </row>
     <row r="6" spans="1:33" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A6" s="8"/>
@@ -1233,182 +1245,182 @@
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="6"/>
-      <c r="AG6" s="29"/>
+      <c r="AG6" s="25"/>
     </row>
     <row r="7" spans="1:33">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
     </row>
     <row r="8" spans="1:33">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
     </row>
     <row r="9" spans="1:33">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
     </row>
     <row r="10" spans="1:33">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
     </row>
     <row r="11" spans="1:33">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1423,15 +1435,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A5CA081AA03014D8863EFE0B1B9EF3A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edb9dd2956c3890b35d87d37ac778bb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="41733dd2-07dd-4b83-9c00-dc1590a38c6d" xmlns:ns3="26469b81-5639-404a-a4db-d68c46bc65bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c7b98c7a72137f7ed2cb8e1ee5f1d1b" ns2:_="" ns3:_="">
     <xsd:import namespace="41733dd2-07dd-4b83-9c00-dc1590a38c6d"/>
@@ -1634,6 +1637,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1641,14 +1653,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF014768-5FF4-4283-957A-3EF30BE5A982}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF64FBC6-E9CA-4548-9C79-75A836B8A34A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1667,6 +1671,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF014768-5FF4-4283-957A-3EF30BE5A982}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8487674-49B6-45FC-BF1C-DB22591417F8}">
   <ds:schemaRefs>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Outsourcing Recognising Template.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Outsourcing Recognising Template.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>Outsourcing Recognising Report</t>
   </si>
@@ -214,6 +214,36 @@
   </si>
   <si>
     <t>{Balance}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>{TotalRNet}</t>
+  </si>
+  <si>
+    <t>{TotalRVAT}</t>
+  </si>
+  <si>
+    <t>{TotalRSell}</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>{TotalNet}</t>
+  </si>
+  <si>
+    <t>{TotalVAT}</t>
+  </si>
+  <si>
+    <t>{TotalBuy}</t>
+  </si>
+  <si>
+    <t>{TotalBalance}</t>
+  </si>
+  <si>
+    <t>Credit No</t>
   </si>
 </sst>
 </file>
@@ -225,7 +255,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$₫-42A]_-;\-* #,##0.00\ [$₫-42A]_-;_-* &quot;-&quot;??\ [$₫-42A]_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;\ [$₫-42A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,8 +350,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,8 +421,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -437,22 +487,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -474,15 +556,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -496,10 +569,37 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -817,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4:AG5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -856,265 +956,265 @@
     <col min="29" max="29" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="17.5703125" customWidth="1"/>
     <col min="32" max="32" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="23.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:34" ht="23.25">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
     </row>
-    <row r="2" spans="1:33" ht="18.75">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:34" ht="18.75">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="27" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="7" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="21" customFormat="1" ht="15.75">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:34" s="17" customFormat="1" ht="15.75">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="U3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="V3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="W3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="X3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Y3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="Z3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AA3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AC3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AD3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AE3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="20" t="s">
+      <c r="AF3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="AG3" s="24"/>
+      <c r="AG3" s="20"/>
     </row>
-    <row r="4" spans="1:33" s="17" customFormat="1">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:34" s="13" customFormat="1">
+      <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="N4" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="O4" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="U4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="V4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15" t="s">
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AD4" s="33" t="s">
+      <c r="AD4" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AE4" s="33" t="s">
+      <c r="AE4" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="AF4" s="34" t="s">
+      <c r="AF4" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="AG4" s="35" t="s">
+      <c r="AG4" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:33" outlineLevel="1">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:34" outlineLevel="1">
+      <c r="A5" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1153,16 +1253,16 @@
       <c r="M5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="31" t="s">
+      <c r="O5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="19" t="s">
         <v>49</v>
       </c>
       <c r="R5" s="1" t="s">
@@ -1201,232 +1301,253 @@
       <c r="AC5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD5" s="31" t="s">
+      <c r="AD5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="AE5" s="31" t="s">
+      <c r="AE5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AF5" s="36" t="s">
+      <c r="AF5" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="AG5" s="37"/>
+      <c r="AG5" s="30"/>
     </row>
-    <row r="6" spans="1:33" ht="13.5" customHeight="1" outlineLevel="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="25"/>
+    <row r="6" spans="1:34" ht="13.5" customHeight="1" outlineLevel="1">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="21"/>
     </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
+    <row r="7" spans="1:34" s="34" customFormat="1">
+      <c r="A7" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE7" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF7" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG7" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH7" s="46"/>
     </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
+    <row r="8" spans="1:34">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
     </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
+    <row r="9" spans="1:34">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
     </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
+    <row r="10" spans="1:34">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
     </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22"/>
+    <row r="11" spans="1:34">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="Q2:AF2"/>
     <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="Q7:AC7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1435,6 +1556,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A5CA081AA03014D8863EFE0B1B9EF3A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edb9dd2956c3890b35d87d37ac778bb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="41733dd2-07dd-4b83-9c00-dc1590a38c6d" xmlns:ns3="26469b81-5639-404a-a4db-d68c46bc65bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c7b98c7a72137f7ed2cb8e1ee5f1d1b" ns2:_="" ns3:_="">
     <xsd:import namespace="41733dd2-07dd-4b83-9c00-dc1590a38c6d"/>
@@ -1637,22 +1773,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8487674-49B6-45FC-BF1C-DB22591417F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="26469b81-5639-404a-a4db-d68c46bc65bf"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="41733dd2-07dd-4b83-9c00-dc1590a38c6d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF014768-5FF4-4283-957A-3EF30BE5A982}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF64FBC6-E9CA-4548-9C79-75A836B8A34A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1669,21 +1815,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF014768-5FF4-4283-957A-3EF30BE5A982}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8487674-49B6-45FC-BF1C-DB22591417F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Outsourcing Recognising Template.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Outsourcing Recognising Template.xlsx
@@ -359,7 +359,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -529,7 +529,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -569,6 +569,15 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,23 +587,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="14" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -919,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF18" sqref="AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -960,79 +957,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="23.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
     </row>
     <row r="2" spans="1:34" ht="18.75">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
       <c r="AG2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1313,42 +1310,42 @@
       <c r="AG5" s="30"/>
     </row>
     <row r="6" spans="1:34" ht="13.5" customHeight="1" outlineLevel="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="41"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="38"/>
       <c r="AG6" s="21"/>
     </row>
-    <row r="7" spans="1:34" s="34" customFormat="1">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:34" s="31" customFormat="1" ht="15.75">
+      <c r="A7" s="43" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="43"/>
@@ -1372,7 +1369,7 @@
       <c r="P7" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="42" t="s">
+      <c r="Q7" s="43" t="s">
         <v>64</v>
       </c>
       <c r="R7" s="43"/>
@@ -1399,7 +1396,7 @@
       <c r="AG7" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="AH7" s="46"/>
+      <c r="AH7" s="39"/>
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="18"/>
@@ -1562,15 +1559,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A5CA081AA03014D8863EFE0B1B9EF3A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edb9dd2956c3890b35d87d37ac778bb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="41733dd2-07dd-4b83-9c00-dc1590a38c6d" xmlns:ns3="26469b81-5639-404a-a4db-d68c46bc65bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c7b98c7a72137f7ed2cb8e1ee5f1d1b" ns2:_="" ns3:_="">
     <xsd:import namespace="41733dd2-07dd-4b83-9c00-dc1590a38c6d"/>
@@ -1773,6 +1761,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8487674-49B6-45FC-BF1C-DB22591417F8}">
   <ds:schemaRefs>
@@ -1791,14 +1788,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF014768-5FF4-4283-957A-3EF30BE5A982}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF64FBC6-E9CA-4548-9C79-75A836B8A34A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1815,4 +1804,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF014768-5FF4-4283-957A-3EF30BE5A982}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Outsourcing Recognising Template.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Outsourcing Recognising Template.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>Outsourcing Recognising Report</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>{TotalBuy}</t>
-  </si>
-  <si>
-    <t>{TotalBalance}</t>
   </si>
   <si>
     <t>Credit No</t>
@@ -578,6 +575,8 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="14" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,8 +589,6 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -916,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF18" sqref="AF18"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ19" sqref="V10:AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -957,79 +954,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="23.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
     </row>
     <row r="2" spans="1:34" ht="18.75">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
       <c r="AG2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1114,7 +1111,7 @@
         <v>13</v>
       </c>
       <c r="AA3" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB3" s="15" t="s">
         <v>15</v>
@@ -1345,56 +1342,57 @@
       <c r="AG6" s="21"/>
     </row>
     <row r="7" spans="1:34" s="31" customFormat="1" ht="15.75">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="44" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="44" t="s">
+      <c r="P7" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="43" t="s">
+      <c r="Q7" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="45" t="s">
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="AE7" s="45" t="s">
+      <c r="AE7" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="AF7" s="45" t="s">
+      <c r="AF7" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AG7" s="45" t="s">
-        <v>68</v>
+      <c r="AG7" s="41">
+        <f>SUM(AG4:AG6)</f>
+        <v>0</v>
       </c>
       <c r="AH7" s="39"/>
     </row>
@@ -1553,9 +1551,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1762,27 +1763,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8487674-49B6-45FC-BF1C-DB22591417F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF014768-5FF4-4283-957A-3EF30BE5A982}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="26469b81-5639-404a-a4db-d68c46bc65bf"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="41733dd2-07dd-4b83-9c00-dc1590a38c6d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1807,9 +1796,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF014768-5FF4-4283-957A-3EF30BE5A982}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8487674-49B6-45FC-BF1C-DB22591417F8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="26469b81-5639-404a-a4db-d68c46bc65bf"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="41733dd2-07dd-4b83-9c00-dc1590a38c6d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>